--- a/biology/Botanique/Noms_des_familles_en_APG_II/Noms_des_familles_en_APG_II.xlsx
+++ b/biology/Botanique/Noms_des_familles_en_APG_II/Noms_des_familles_en_APG_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
-          <t>Une liste de nom des familles. Les noms gras sont les noms courants selon la classification phylogénétique APG II (2003)[1]. Les noms italiques ne sont pas assignés en APG II.
+          <t>Une liste de nom des familles. Les noms gras sont les noms courants selon la classification phylogénétique APG II (2003). Les noms italiques ne sont pas assignés en APG II.
 Abolbodaceae Nakai (1943) = Xyridaceae
 Abrophyllaceae Nakai (1943) = Rousseaceae
 Acanthaceae Juss. (1789), nom. cons.
@@ -1176,7 +1188,7 @@
 Schlegeliaceae  (A.H. Gentry) Reveal (1996)
 Sclerophylacaceae Miers (1848) = Solanaceae
 Scoliopaceae Takht. (1996) = Liliaceae
-Scrophulariaceae</t>
+Scrophulariaceae Ju</t>
         </is>
       </c>
     </row>
